--- a/ExamToeicOnline-BackEnd-Clients/ExamToeicOnline-BackEnd-Clients/wwwroot/uploads/score/Answer.xlsx
+++ b/ExamToeicOnline-BackEnd-Clients/ExamToeicOnline-BackEnd-Clients/wwwroot/uploads/score/Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam 4\HK I\TLCN\TLCN\ExamToeicOnline-BackEnd-Clients\ExamToeicOnline-BackEnd-Clients\File\Bộ đề\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A5F0B-9734-4B94-A269-74D490B3780D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C800DA31-1CEF-4B29-8356-6720F3DD645C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,1117 +445,1106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
+      <c r="A1" s="5">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>15</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4">
         <v>10</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3">
         <v>10</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C8" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C13" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C17" s="3">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C18" s="3">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C19" s="3">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C20" s="3">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C21" s="3">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C22" s="3">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C23" s="3">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C24" s="3">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C25" s="3">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C26" s="3">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C27" s="3">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C28" s="3">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C29" s="3">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C30" s="3">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C31" s="3">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C32" s="3">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="3">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C33" s="3">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="3">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C34" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3">
-        <v>180</v>
-      </c>
-      <c r="C35" s="3">
         <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2">
+        <v>185</v>
+      </c>
+      <c r="C35" s="2">
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C36" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C37" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C38" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C39" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C40" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C41" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C42" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C43" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C44" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C45" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C46" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C47" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C48" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C49" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C50" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C51" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C52" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C53" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C54" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C55" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C56" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C57" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C58" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C59" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C60" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C61" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C62" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C63" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C64" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C65" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C66" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C67" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C68" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C69" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C70" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C71" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C72" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C73" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C74" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C75" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C76" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C77" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C78" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C79" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C80" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C81" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C82" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C83" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C84" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C85" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C86" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C87" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C88" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C89" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C90" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C91" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C92" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C93" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C94" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C95" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C96" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C97" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2">
         <v>495</v>
       </c>
       <c r="C98" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2">
         <v>495</v>
       </c>
       <c r="C99" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2">
         <v>495</v>
       </c>
       <c r="C100" s="2">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
-        <v>100</v>
-      </c>
-      <c r="B101" s="2">
-        <v>495</v>
-      </c>
-      <c r="C101" s="2">
         <v>495</v>
       </c>
     </row>

--- a/ExamToeicOnline-BackEnd-Clients/ExamToeicOnline-BackEnd-Clients/wwwroot/uploads/score/Answer.xlsx
+++ b/ExamToeicOnline-BackEnd-Clients/ExamToeicOnline-BackEnd-Clients/wwwroot/uploads/score/Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam 4\HK I\TLCN\TLCN\ExamToeicOnline-BackEnd-Clients\ExamToeicOnline-BackEnd-Clients\File\Bộ đề\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C800DA31-1CEF-4B29-8356-6720F3DD645C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A5F0B-9734-4B94-A269-74D490B3780D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,1106 +445,1117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B2" s="5">
         <v>15</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C2" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B3" s="4">
         <v>20</v>
       </c>
-      <c r="C2" s="4">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>10</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C18" s="3">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C19" s="3">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C20" s="3">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C21" s="3">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C22" s="3">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C23" s="3">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C24" s="3">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C25" s="3">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C26" s="3">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C27" s="3">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C28" s="3">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C29" s="3">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C30" s="3">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C31" s="3">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C32" s="3">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C33" s="3">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>175</v>
+      </c>
+      <c r="C34" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B35" s="3">
         <v>180</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C35" s="3">
         <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>35</v>
-      </c>
-      <c r="B35" s="2">
-        <v>185</v>
-      </c>
-      <c r="C35" s="2">
-        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C36" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C37" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C38" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C39" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C40" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C41" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C42" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C43" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C44" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C45" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C46" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C47" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C48" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C49" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C50" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C51" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C52" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C53" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C54" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C55" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C56" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C57" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C58" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C59" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C60" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C61" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C62" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C63" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C64" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C65" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C66" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C67" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C68" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C69" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C70" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C71" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C72" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C73" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C74" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C75" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C76" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C77" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C78" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C79" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C80" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C81" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C82" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C83" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C84" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C85" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C86" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C87" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C88" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C89" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C90" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C91" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C92" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C93" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C94" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C95" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C96" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C97" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2">
         <v>495</v>
       </c>
       <c r="C98" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2">
         <v>495</v>
       </c>
       <c r="C99" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2">
         <v>495</v>
       </c>
       <c r="C100" s="2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2">
+        <v>495</v>
+      </c>
+      <c r="C101" s="2">
         <v>495</v>
       </c>
     </row>
